--- a/RESTAssured/Data/TestData.xlsx
+++ b/RESTAssured/Data/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PK185206\git\REST-Assured\RESTAssured\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D958D28-F451-49A1-A2F2-9764E75F5477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{23BB593B-873B-4EAC-929C-A7EA61F7F783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>firstName</t>
   </si>
@@ -36,16 +32,34 @@
     <t>subjectId</t>
   </si>
   <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">George </t>
-  </si>
-  <si>
-    <t>Clooney</t>
+    <t xml:space="preserve">Charles </t>
+  </si>
+  <si>
+    <t>Darwin</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>Musk</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Winslet</t>
   </si>
 </sst>
 </file>
@@ -372,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +424,39 @@
         <v>6</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>
